--- a/data/trans_dic/POLIPATOLOGIA_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Edad-trans_dic.xlsx
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005517916754347294</v>
+        <v>0.005548845017923224</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002916628167281731</v>
+        <v>0.002893594857207693</v>
       </c>
     </row>
     <row r="6">
@@ -745,31 +745,31 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01006099000552669</v>
+        <v>0.01192193631780517</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.02117720750851149</v>
+        <v>0.01999197990918562</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.01277312448902602</v>
+        <v>0.01185231561450823</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01210951204468323</v>
+        <v>0.0120943420357578</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0492672561490128</v>
+        <v>0.04818976816961971</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.00773882501314336</v>
+        <v>0.006667216765388522</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.004731768512926541</v>
+        <v>0.005914160306686101</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02559057506380419</v>
+        <v>0.02632445128520254</v>
       </c>
     </row>
     <row r="7">
@@ -838,28 +838,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009674554004396466</v>
+        <v>0.008790097094226082</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004553055588319814</v>
+        <v>0.004678266080977497</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004179748939834935</v>
+        <v>0.004266561706083119</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01672145324691302</v>
+        <v>0.01404396149852597</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005076570212678847</v>
+        <v>0.004426900589711115</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00281724294666725</v>
+        <v>0.002401471390002537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.001989624892600214</v>
+        <v>0.001981476255850043</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01038771912381734</v>
+        <v>0.009391907498291694</v>
       </c>
     </row>
     <row r="9">
@@ -870,38 +870,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.006830680974809193</v>
+        <v>0.007676066795552806</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007473205907126263</v>
+        <v>0.009998685684904017</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.01864933350681834</v>
+        <v>0.01773889666561855</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03349292894803367</v>
+        <v>0.03101553063829693</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02513220552423616</v>
+        <v>0.027388396405276</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02250205030749698</v>
+        <v>0.02151580348501584</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04685305896621916</v>
+        <v>0.04619310306353486</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01705977428139276</v>
+        <v>0.01531514574131551</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01348516527694386</v>
+        <v>0.01381415626549174</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01121229538609855</v>
+        <v>0.01111475569688988</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02709693814775703</v>
+        <v>0.02744179426645022</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.02371028841798177</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04770464623749797</v>
+        <v>0.04770464623749796</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01418905571806683</v>
@@ -960,40 +960,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002915980675545115</v>
+        <v>0.003128574757145554</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001308770676059694</v>
+        <v>0.00131303637662488</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01706004008382625</v>
+        <v>0.0185269476180648</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01059281482615793</v>
+        <v>0.01100154291865199</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02020759657556893</v>
+        <v>0.02031455594476212</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01412985445058527</v>
+        <v>0.01467177381843451</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03448771675215594</v>
+        <v>0.0350071042124158</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008924116088880748</v>
+        <v>0.009154522399606031</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01167409061116208</v>
+        <v>0.0117177359424424</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008215470120796689</v>
+        <v>0.008066317479603194</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02965396906490618</v>
+        <v>0.02898244752717155</v>
       </c>
     </row>
     <row r="12">
@@ -1004,40 +1004,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01706469772637432</v>
+        <v>0.01716390953493839</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01136584878744095</v>
+        <v>0.01242013121678204</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01412937072523232</v>
+        <v>0.01358961929687212</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04922578661324865</v>
+        <v>0.04772973246009195</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03152159227203392</v>
+        <v>0.03194195715275652</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04850948680823074</v>
+        <v>0.04681807592931317</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03754127136951279</v>
+        <v>0.03668446436894107</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06354864855972212</v>
+        <v>0.06539367467435471</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02107606740608605</v>
+        <v>0.02207727699254464</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02708837943065427</v>
+        <v>0.02736298323157972</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0206900000907354</v>
+        <v>0.02025339940380787</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04993598539562304</v>
+        <v>0.05106119755454431</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0.04743665148923005</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09794688222866579</v>
+        <v>0.09794688222866581</v>
       </c>
     </row>
     <row r="14">
@@ -1096,40 +1096,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01048655924186994</v>
+        <v>0.01016979406502132</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0104620246741875</v>
+        <v>0.01023930798697864</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01372643904037766</v>
+        <v>0.01521510721058199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04860100867193035</v>
+        <v>0.04762996843452962</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03424487905845405</v>
+        <v>0.03415927019180956</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04892188839763745</v>
+        <v>0.04632428271328734</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05017171996103078</v>
+        <v>0.05164489562196233</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1098969076202761</v>
+        <v>0.1095968419540424</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02463383097657127</v>
+        <v>0.02576454508600605</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03207334477299548</v>
+        <v>0.03251491888969281</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03684518410546715</v>
+        <v>0.03618963774280789</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08452915140387064</v>
+        <v>0.08307740063315207</v>
       </c>
     </row>
     <row r="15">
@@ -1140,40 +1140,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03832277315720829</v>
+        <v>0.03833319825979071</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03741666735461256</v>
+        <v>0.03526777791817176</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04234955977906988</v>
+        <v>0.04007400340213001</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08815890406521071</v>
+        <v>0.08715700403919349</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07688123778010818</v>
+        <v>0.07522003753981403</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.093271407167346</v>
+        <v>0.09238219696063051</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09295022459861783</v>
+        <v>0.09116466213786019</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1497685685662133</v>
+        <v>0.1492409156322376</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04867825154925307</v>
+        <v>0.05045581846609523</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05687290488282622</v>
+        <v>0.05699434997159084</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06080766210899641</v>
+        <v>0.06029384705063427</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1125856346315125</v>
+        <v>0.1099842092903525</v>
       </c>
     </row>
     <row r="16">
@@ -1232,40 +1232,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04034795364481233</v>
+        <v>0.04125928073619008</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02636067811538744</v>
+        <v>0.02607865742938545</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03418640085953284</v>
+        <v>0.03298094148402515</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08798573961934762</v>
+        <v>0.08560162889836125</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07531686752333291</v>
+        <v>0.07564812943142186</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1224971894824813</v>
+        <v>0.1257891697072016</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1253750822322178</v>
+        <v>0.1267684313252233</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1667005148900311</v>
+        <v>0.166924248013836</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0638385602233696</v>
+        <v>0.06421022980412582</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08104088986904687</v>
+        <v>0.08043580940839941</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08811645402656598</v>
+        <v>0.08617956097884374</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1335015382755612</v>
+        <v>0.1332545422298074</v>
       </c>
     </row>
     <row r="18">
@@ -1276,40 +1276,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08977206779303905</v>
+        <v>0.09245329250404488</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06517064774522534</v>
+        <v>0.06560402654195767</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08024113480436611</v>
+        <v>0.07687206340572274</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1324783876031434</v>
+        <v>0.1335860811621073</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1335401151637956</v>
+        <v>0.1326665035402192</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1924915107353511</v>
+        <v>0.1994216447888738</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1931208748409455</v>
+        <v>0.1916776406224406</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2168914146323472</v>
+        <v>0.2176493116113588</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1015622384577049</v>
+        <v>0.1042776640166486</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1226220031082687</v>
+        <v>0.1217995082608147</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1298221809249813</v>
+        <v>0.1288505484062944</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1694939331500099</v>
+        <v>0.1664234274011794</v>
       </c>
     </row>
     <row r="19">
@@ -1368,40 +1368,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08713329416641644</v>
+        <v>0.08904104817851465</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1020989956542872</v>
+        <v>0.100202040433013</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05881151252823229</v>
+        <v>0.05920801842491732</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1180438873982782</v>
+        <v>0.1196640456455853</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1324831159881886</v>
+        <v>0.1327131810342384</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1646146773300307</v>
+        <v>0.1577425354473894</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1886632310254986</v>
+        <v>0.1906838869718353</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2647097658800109</v>
+        <v>0.2617411112518794</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1214685831699061</v>
+        <v>0.1221432668677083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1461630657992243</v>
+        <v>0.1449455495564229</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1368856737069272</v>
+        <v>0.1375311873297479</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1995486535371967</v>
+        <v>0.1994122029561341</v>
       </c>
     </row>
     <row r="21">
@@ -1412,40 +1412,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1595029277238653</v>
+        <v>0.1622572681749008</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1880890527209415</v>
+        <v>0.1880966700567554</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1204307761973232</v>
+        <v>0.1205942962223236</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1760910185143945</v>
+        <v>0.1753140234248226</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2062753097946441</v>
+        <v>0.2120060505626451</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2533944882238779</v>
+        <v>0.2472540427802658</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2770672980028545</v>
+        <v>0.2849020566997917</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3258319481177903</v>
+        <v>0.3247412585421448</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1762606248502392</v>
+        <v>0.1776173246482039</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2040848232509585</v>
+        <v>0.2092635209287778</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1920749319608472</v>
+        <v>0.1928333478412163</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2437514253326253</v>
+        <v>0.2424792786312636</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +1481,7 @@
         <v>0.2824518986486061</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.4773364525547116</v>
+        <v>0.4773364525547115</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2043990527200423</v>
@@ -1493,7 +1493,7 @@
         <v>0.2444167139184026</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4188974636599114</v>
+        <v>0.4188974636599113</v>
       </c>
     </row>
     <row r="23">
@@ -1504,40 +1504,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1211831558576109</v>
+        <v>0.1218142332525405</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1493137144569876</v>
+        <v>0.1514173979709507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1420440931450647</v>
+        <v>0.1425240227861482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2899293713277301</v>
+        <v>0.2849312210133443</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1817274440905079</v>
+        <v>0.1804268589754736</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3060405506223128</v>
+        <v>0.3069980657924549</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2334859766036757</v>
+        <v>0.2286220707442882</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4447946050140629</v>
+        <v>0.4411615661094161</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1692633656394666</v>
+        <v>0.1713015136258349</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2583141296325135</v>
+        <v>0.2579044412895367</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2105057116933149</v>
+        <v>0.2113600287051673</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.390319331971931</v>
+        <v>0.3887630711521932</v>
       </c>
     </row>
     <row r="24">
@@ -1548,40 +1548,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.222716028614463</v>
+        <v>0.2208768144850511</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2610434369504721</v>
+        <v>0.2586245959434021</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2299277944039805</v>
+        <v>0.2302829511711096</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3750439232503977</v>
+        <v>0.3754310041246494</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2759237104407535</v>
+        <v>0.2786288441449625</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.406596717520383</v>
+        <v>0.4057309662414256</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3367508755180821</v>
+        <v>0.3310156144459355</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5125390919342665</v>
+        <v>0.5082305838470761</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2411053796831626</v>
+        <v>0.242682644085673</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3293925458676183</v>
+        <v>0.3321192852681254</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2816722840791678</v>
+        <v>0.2831433139794397</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4449791884989402</v>
+        <v>0.4424258216058549</v>
       </c>
     </row>
     <row r="25">
@@ -1605,7 +1605,7 @@
         <v>0.03520085888637804</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.08395997600994848</v>
+        <v>0.08395997600994846</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.06704220913826139</v>
@@ -1617,7 +1617,7 @@
         <v>0.0979509047708593</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1638784621599326</v>
+        <v>0.1638784621599325</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.05084127958350297</v>
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02831684981217865</v>
+        <v>0.02857506075762491</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03149872547148206</v>
+        <v>0.0316582666591371</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02931786472669364</v>
+        <v>0.0296709665606585</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07545796431254684</v>
+        <v>0.07516693162555334</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05774682142247951</v>
+        <v>0.05882745501679269</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08918912324439045</v>
+        <v>0.08872508609844039</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08741900864611142</v>
+        <v>0.08853682970256956</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.154330419170001</v>
+        <v>0.154502949487301</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04555235749649706</v>
+        <v>0.04568769743438784</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.06278299349435058</v>
+        <v>0.0630127691804012</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0611714150751944</v>
+        <v>0.06112337699167627</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1185088046878754</v>
+        <v>0.1188536030113951</v>
       </c>
     </row>
     <row r="27">
@@ -1684,40 +1684,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0409598624463102</v>
+        <v>0.04011527088171515</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04481191429653711</v>
+        <v>0.04533108741384586</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04195810045325855</v>
+        <v>0.04222104688561251</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09340205932408133</v>
+        <v>0.09256652663953151</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07628596346720221</v>
+        <v>0.07666604801319707</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1092212705839782</v>
+        <v>0.1097446696746234</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1087175767045439</v>
+        <v>0.1097496566125327</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1733462312597545</v>
+        <v>0.1737074110250952</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05653245456705201</v>
+        <v>0.05610308618877982</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.07506897170087763</v>
+        <v>0.07597848573440485</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0739883429252135</v>
+        <v>0.0738867472995807</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1314269415704956</v>
+        <v>0.1318895371300452</v>
       </c>
     </row>
     <row r="28">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2247</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="7">
@@ -2028,31 +2028,31 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4569</v>
+        <v>5414</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>8636</v>
+        <v>8153</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>5495</v>
+        <v>5099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>4792</v>
+        <v>4786</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17860</v>
+        <v>17469</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>6844</v>
+        <v>5896</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>3857</v>
+        <v>4821</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>19713</v>
+        <v>20278</v>
       </c>
     </row>
     <row r="8">
@@ -2165,28 +2165,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6051</v>
+        <v>5498</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2779</v>
+        <v>2855</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2355</v>
+        <v>2404</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8390</v>
+        <v>7046</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6909</v>
+        <v>6025</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3655</v>
+        <v>3116</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2296</v>
+        <v>2287</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10166</v>
+        <v>9191</v>
       </c>
     </row>
     <row r="11">
@@ -2197,38 +2197,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5024</v>
+        <v>5646</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5135</v>
+        <v>6870</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>8894</v>
+        <v>8460</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>20950</v>
+        <v>19400</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15337</v>
+        <v>16714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12681</v>
+        <v>12125</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23508</v>
+        <v>23177</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>23218</v>
+        <v>20844</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17495</v>
+        <v>17922</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12939</v>
+        <v>12827</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>26518</v>
+        <v>26855</v>
       </c>
     </row>
     <row r="12">
@@ -2331,40 +2331,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1862</v>
+        <v>1998</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10592</v>
+        <v>11502</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7306</v>
+        <v>7588</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14365</v>
+        <v>14441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9345</v>
+        <v>9704</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21493</v>
+        <v>21816</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11855</v>
+        <v>12161</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>16259</v>
+        <v>16319</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10931</v>
+        <v>10732</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>36890</v>
+        <v>36055</v>
       </c>
     </row>
     <row r="15">
@@ -2375,40 +2375,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10899</v>
+        <v>10962</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7750</v>
+        <v>8469</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9454</v>
+        <v>9093</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30561</v>
+        <v>29632</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21742</v>
+        <v>22032</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>34483</v>
+        <v>33281</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24829</v>
+        <v>24263</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>39603</v>
+        <v>40753</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27998</v>
+        <v>29328</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>37726</v>
+        <v>38109</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>27528</v>
+        <v>26947</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>62122</v>
+        <v>63522</v>
       </c>
     </row>
     <row r="16">
@@ -2511,40 +2511,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5444</v>
+        <v>5280</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6430</v>
+        <v>6293</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8868</v>
+        <v>9830</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>34051</v>
+        <v>33370</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17658</v>
+        <v>17614</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30146</v>
+        <v>28545</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32565</v>
+        <v>33522</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>80981</v>
+        <v>80760</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>25491</v>
+        <v>26661</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>39476</v>
+        <v>40020</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>47719</v>
+        <v>46870</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>121511</v>
+        <v>119424</v>
       </c>
     </row>
     <row r="19">
@@ -2555,40 +2555,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19895</v>
+        <v>19901</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22997</v>
+        <v>21676</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27360</v>
+        <v>25890</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>61766</v>
+        <v>61064</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39643</v>
+        <v>38787</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>57474</v>
+        <v>56926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>60332</v>
+        <v>59173</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>110362</v>
+        <v>109974</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>50372</v>
+        <v>52211</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>70000</v>
+        <v>70150</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>78754</v>
+        <v>78088</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>161842</v>
+        <v>158103</v>
       </c>
     </row>
     <row r="20">
@@ -2691,40 +2691,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>15603</v>
+        <v>15955</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>11320</v>
+        <v>11199</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>16338</v>
+        <v>15762</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>53614</v>
+        <v>52161</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>30427</v>
+        <v>30561</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>54854</v>
+        <v>56328</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>62292</v>
+        <v>62985</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>101496</v>
+        <v>101633</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>50477</v>
+        <v>50771</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>71091</v>
+        <v>70561</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>85893</v>
+        <v>84005</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>162632</v>
+        <v>162331</v>
       </c>
     </row>
     <row r="23">
@@ -2735,40 +2735,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>34716</v>
+        <v>35753</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>27986</v>
+        <v>28172</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>38349</v>
+        <v>36739</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>80725</v>
+        <v>81400</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>53948</v>
+        <v>53595</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>86198</v>
+        <v>89301</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>95952</v>
+        <v>95235</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>132055</v>
+        <v>132517</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>80305</v>
+        <v>82452</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>107568</v>
+        <v>106846</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>126546</v>
+        <v>125599</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>206478</v>
+        <v>202737</v>
       </c>
     </row>
     <row r="24">
@@ -2871,40 +2871,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25494</v>
+        <v>26052</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>31629</v>
+        <v>31041</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>19662</v>
+        <v>19795</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>48053</v>
+        <v>48713</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>45433</v>
+        <v>45512</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>58273</v>
+        <v>55840</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>71270</v>
+        <v>72033</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>116252</v>
+        <v>114948</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>77195</v>
+        <v>77624</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>97020</v>
+        <v>96212</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>97475</v>
+        <v>97935</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>168867</v>
+        <v>168752</v>
       </c>
     </row>
     <row r="27">
@@ -2915,40 +2915,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>46668</v>
+        <v>47474</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>58267</v>
+        <v>58270</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>40264</v>
+        <v>40318</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>71683</v>
+        <v>71367</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>70739</v>
+        <v>72704</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>89701</v>
+        <v>87527</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>104665</v>
+        <v>107625</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>143094</v>
+        <v>142615</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>112017</v>
+        <v>112879</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>135468</v>
+        <v>138905</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>136775</v>
+        <v>137315</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>206274</v>
+        <v>205197</v>
       </c>
     </row>
     <row r="28">
@@ -3051,40 +3051,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>25434</v>
+        <v>25567</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>37306</v>
+        <v>37832</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>36505</v>
+        <v>36628</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>89936</v>
+        <v>88385</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>60680</v>
+        <v>60246</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>119043</v>
+        <v>119416</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>93434</v>
+        <v>91487</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>206656</v>
+        <v>204968</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>92044</v>
+        <v>93152</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>165019</v>
+        <v>164757</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>138337</v>
+        <v>138899</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>302422</v>
+        <v>301216</v>
       </c>
     </row>
     <row r="31">
@@ -3095,40 +3095,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>46744</v>
+        <v>46358</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>65222</v>
+        <v>64618</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>59091</v>
+        <v>59182</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>116338</v>
+        <v>116458</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>92133</v>
+        <v>93036</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>158158</v>
+        <v>157821</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>134757</v>
+        <v>132462</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>238130</v>
+        <v>236129</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>131111</v>
+        <v>131969</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>210426</v>
+        <v>212168</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>185106</v>
+        <v>186072</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>344773</v>
+        <v>342795</v>
       </c>
     </row>
     <row r="32">
@@ -3231,40 +3231,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>92781</v>
+        <v>93627</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>107939</v>
+        <v>108486</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>99515</v>
+        <v>100714</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>266575</v>
+        <v>265547</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>195138</v>
+        <v>198790</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>317362</v>
+        <v>315711</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>309860</v>
+        <v>313823</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>576726</v>
+        <v>577370</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>303185</v>
+        <v>304085</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>438545</v>
+        <v>440150</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>424462</v>
+        <v>424129</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>861525</v>
+        <v>864032</v>
       </c>
     </row>
     <row r="35">
@@ -3275,40 +3275,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>134207</v>
+        <v>131439</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>153561</v>
+        <v>155340</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>142420</v>
+        <v>143313</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>329967</v>
+        <v>327016</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>257785</v>
+        <v>259070</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>388643</v>
+        <v>390505</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>385354</v>
+        <v>389012</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>647787</v>
+        <v>649137</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>376265</v>
+        <v>373408</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>524363</v>
+        <v>530716</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>513397</v>
+        <v>512692</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>955437</v>
+        <v>958799</v>
       </c>
     </row>
     <row r="36">
